--- a/Docs/TaskList/1 - Product Backlog - Project SEM2 - Airlines Reservation System.xlsx
+++ b/Docs/TaskList/1 - Product Backlog - Project SEM2 - Airlines Reservation System.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hieu_iceTea\Learn\SEM2\Laravel-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hieu_iceTea\Learn\SEM2\CODEDY-AirlinesReservationSystem\CODEDY-AirlinesReservationSystem\Docs\TaskList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C7F83E-1EF8-4184-8944-032D6DE1DFA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A413DF-7593-4F1A-B796-FE5C83FFAA77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C4A07E2D-EA10-4ED4-94E5-76962B99951E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -103,12 +103,6 @@
     <t>Hoà</t>
   </si>
   <si>
-    <t>Menu trên tiêu đề</t>
-  </si>
-  <si>
-    <t>Điều hướng</t>
-  </si>
-  <si>
     <t>Suport</t>
   </si>
   <si>
@@ -124,14 +118,94 @@
     <t>ALL</t>
   </si>
   <si>
-    <t>25/07 AM</t>
+    <t>Đăng nhập vào hệ thống</t>
+  </si>
+  <si>
+    <t>Thực hiện được các chức năng uỷ quyền</t>
+  </si>
+  <si>
+    <t>Kiểm tra vé của mình</t>
+  </si>
+  <si>
+    <t>Mua vé, Huỷ vé, Kiểm tra vé</t>
+  </si>
+  <si>
+    <t>Thực hiện giao dịch</t>
+  </si>
+  <si>
+    <t>Đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t>Đăng nhập với tư cách khách</t>
+  </si>
+  <si>
+    <t>Dùng nhanh một số tính năng cơ bản: Tìm kiếm, xem vé còn trống</t>
+  </si>
+  <si>
+    <t>Có tài khoản để đăng nhập, sử dụng đầy đủ chức năng</t>
+  </si>
+  <si>
+    <t>Tìm kiếm vé khả dụng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lựa chọn chuyến đi/máy bay phù hợp
+- tìm theo tên thành phố
+- ngày khởi hành
+- lựa chọn hạng chỗ
+- Một chiều,  khứ hồi
+- </t>
+  </si>
+  <si>
+    <t>Lựa chọn vé và đặt vé</t>
+  </si>
+  <si>
+    <t>Xem thông tin vé đã đặt</t>
+  </si>
+  <si>
+    <t>Giá cả</t>
+  </si>
+  <si>
+    <t>Giữ vé</t>
+  </si>
+  <si>
+    <t>Đặt lại vé</t>
+  </si>
+  <si>
+    <t>Thay đổi lịch trình, địa điểm</t>
+  </si>
+  <si>
+    <t>Huỷ vé</t>
+  </si>
+  <si>
+    <t>Cập nhật hồ sơ</t>
+  </si>
+  <si>
+    <t>Xem tình trạng vé</t>
+  </si>
+  <si>
+    <t>Xác nhận đặt vé</t>
+  </si>
+  <si>
+    <t>Giữ chỗ và trả tiền sau</t>
+  </si>
+  <si>
+    <t>Không đi nữa thì huỷ</t>
+  </si>
+  <si>
+    <t>Sửa các thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>Kiểm tra chuyến bay bất kỳ</t>
+  </si>
+  <si>
+    <t>Xem chi tiết chuyến bay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,14 +226,6 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF7030A0"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
@@ -278,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -301,21 +367,33 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,37 +401,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="13">
     <dxf>
       <font>
         <color theme="0"/>
@@ -388,205 +451,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -983,22 +847,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA99EBA3-E5D9-493A-814B-39E5E0D02E65}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="28.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.625" style="2" customWidth="1"/>
@@ -1008,27 +872,27 @@
     <col min="67" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="str">
+      <c r="B2" s="17" t="str">
         <f xml:space="preserve"> "PRODUCT BACKLOG " &amp; UPPER("'Airlines Reservation System'")</f>
         <v>PRODUCT BACKLOG 'AIRLINES RESERVATION SYSTEM'</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1051,9 +915,9 @@
         <v>14</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -1066,17 +930,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
         <f xml:space="preserve"> ROW() - 3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>24</v>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
@@ -1084,238 +950,342 @@
       <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
-        <f xml:space="preserve"> ROW() - 3</f>
+        <f t="shared" ref="B5:B16" si="0" xml:space="preserve"> ROW() - 3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="15"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" ht="54" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
-        <f t="shared" ref="B6:B16" si="0" xml:space="preserve"> ROW() - 3</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="4"/>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G6" s="4">
         <v>1</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="4">
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" ht="54.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="4">
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9">
         <v>1</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" ht="127.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11">
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="9">
         <v>1</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="9">
+      <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="15"/>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="22">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="15"/>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="22">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="15"/>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="15"/>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="11"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="15"/>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="15"/>
+      <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="15"/>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="22">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="11"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="15"/>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="22">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="15"/>
+      <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="15"/>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="22">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="15"/>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="22">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="15"/>
+      <c r="M16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="L3:L7 L9:L16">
+  <conditionalFormatting sqref="L8:L16 L3:L6">
     <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"Doing"</formula>
     </cfRule>
@@ -1327,30 +1297,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I3">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"Work in Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"To be started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:M3">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Work in Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"To be started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Cancel"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1411,7 +1376,7 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1423,9 +1388,9 @@
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1437,44 +1402,44 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="D5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E6" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E7" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="D5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E6" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E7" s="17" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Doing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Cancel"</formula>
     </cfRule>
   </conditionalFormatting>
